--- a/data/indices/NIFTY 50_stocks.xlsx
+++ b/data/indices/NIFTY 50_stocks.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>257.08</v>
+        <v>258.65</v>
       </c>
       <c r="E2" t="n">
         <v>248.45</v>
@@ -517,10 +517,10 @@
         <v>204.5</v>
       </c>
       <c r="I2" t="n">
-        <v>25.4840579710145</v>
+        <v>25.02898550724638</v>
       </c>
       <c r="J2" t="n">
-        <v>-25.71149144254278</v>
+        <v>-26.47921760391197</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>794.7</v>
+        <v>789</v>
       </c>
       <c r="E3" t="n">
         <v>768</v>
@@ -555,895 +555,895 @@
         <v>717.7</v>
       </c>
       <c r="I3" t="n">
-        <v>32.59541984732824</v>
+        <v>33.07888040712468</v>
       </c>
       <c r="J3" t="n">
-        <v>-10.72871673401142</v>
+        <v>-9.934513027727455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE280A01028</t>
+          <t>INE123W01016</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gems Jewellery And Watches</t>
+          <t>Life Insurance</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3465.3</v>
+        <v>1450</v>
       </c>
       <c r="E4" t="n">
-        <v>3395</v>
+        <v>1428.25</v>
       </c>
       <c r="F4" t="n">
-        <v>3388.95</v>
+        <v>1422.25</v>
       </c>
       <c r="G4" t="n">
-        <v>3886.95</v>
+        <v>1936</v>
       </c>
       <c r="H4" t="n">
-        <v>3055.65</v>
+        <v>1307.7</v>
       </c>
       <c r="I4" t="n">
-        <v>10.84783699301508</v>
+        <v>25.10330578512397</v>
       </c>
       <c r="J4" t="n">
-        <v>-13.40631289578322</v>
+        <v>-10.88170069587826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE095A01012</t>
+          <t>INE280A01028</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Gems Jewellery And Watches</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1010.5</v>
+        <v>3450</v>
       </c>
       <c r="E5" t="n">
-        <v>993</v>
+        <v>3395</v>
       </c>
       <c r="F5" t="n">
-        <v>991.35</v>
+        <v>3388.95</v>
       </c>
       <c r="G5" t="n">
-        <v>1694.5</v>
+        <v>3886.95</v>
       </c>
       <c r="H5" t="n">
-        <v>926.45</v>
+        <v>3055.65</v>
       </c>
       <c r="I5" t="n">
-        <v>40.36588964296253</v>
+        <v>11.24146181453324</v>
       </c>
       <c r="J5" t="n">
-        <v>-9.072265097954553</v>
+        <v>-12.90560109960237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE123W01016</t>
+          <t>INE239A01024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Packaged Foods</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1447.35</v>
+        <v>2231</v>
       </c>
       <c r="E6" t="n">
-        <v>1428.25</v>
+        <v>2200.2</v>
       </c>
       <c r="F6" t="n">
-        <v>1422.25</v>
+        <v>2200.2</v>
       </c>
       <c r="G6" t="n">
-        <v>1936</v>
+        <v>2778</v>
       </c>
       <c r="H6" t="n">
-        <v>1307.7</v>
+        <v>2145.4</v>
       </c>
       <c r="I6" t="n">
-        <v>25.24018595041323</v>
+        <v>19.69042476601872</v>
       </c>
       <c r="J6" t="n">
-        <v>-10.67905482908923</v>
+        <v>-3.989931947422388</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE585B01010</t>
+          <t>INE030A01027</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Passenger Cars &amp; Utility Vehicles</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12023</v>
+        <v>2403</v>
       </c>
       <c r="E7" t="n">
-        <v>11849.95</v>
+        <v>2381.85</v>
       </c>
       <c r="F7" t="n">
-        <v>11841.3</v>
+        <v>2370</v>
       </c>
       <c r="G7" t="n">
-        <v>13680</v>
+        <v>3035</v>
       </c>
       <c r="H7" t="n">
-        <v>9737.65</v>
+        <v>2172.05</v>
       </c>
       <c r="I7" t="n">
-        <v>12.1125730994152</v>
+        <v>20.82372322899506</v>
       </c>
       <c r="J7" t="n">
-        <v>-23.46921485163259</v>
+        <v>-10.63281232015837</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE733E01010</t>
+          <t>INE216A01030</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Power Generation</t>
+          <t>Packaged Foods</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>342.95</v>
+        <v>4839.85</v>
       </c>
       <c r="E8" t="n">
-        <v>338.05</v>
+        <v>4800</v>
       </c>
       <c r="F8" t="n">
-        <v>338</v>
+        <v>4787.8</v>
       </c>
       <c r="G8" t="n">
-        <v>448.45</v>
+        <v>6469.9</v>
       </c>
       <c r="H8" t="n">
-        <v>296.55</v>
+        <v>4641</v>
       </c>
       <c r="I8" t="n">
-        <v>23.52547664176608</v>
+        <v>25.19436158209554</v>
       </c>
       <c r="J8" t="n">
-        <v>-15.64660259652672</v>
+        <v>-4.284636931695763</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE296A01024</t>
+          <t>INE192A01025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Tea &amp; Coffee</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7492.5</v>
+        <v>936</v>
       </c>
       <c r="E9" t="n">
-        <v>7389.75</v>
+        <v>932.7</v>
       </c>
       <c r="F9" t="n">
-        <v>7389.2</v>
+        <v>929.65</v>
       </c>
       <c r="G9" t="n">
-        <v>7830</v>
+        <v>1256.44</v>
       </c>
       <c r="H9" t="n">
-        <v>6187.8</v>
+        <v>882.9</v>
       </c>
       <c r="I9" t="n">
-        <v>4.310344827586207</v>
+        <v>25.50380439973258</v>
       </c>
       <c r="J9" t="n">
-        <v>-21.08503830117327</v>
+        <v>-6.014271151885833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE239A01024</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Packaged Foods</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2229.3</v>
+        <v>1249.85</v>
       </c>
       <c r="E10" t="n">
-        <v>2200.2</v>
+        <v>1243.9</v>
       </c>
       <c r="F10" t="n">
-        <v>2200.2</v>
+        <v>1241.8</v>
       </c>
       <c r="G10" t="n">
-        <v>2778</v>
+        <v>1608.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2145.4</v>
+        <v>1201.5</v>
       </c>
       <c r="I10" t="n">
-        <v>19.75161987041036</v>
+        <v>22.31166086524118</v>
       </c>
       <c r="J10" t="n">
-        <v>-3.91069264472826</v>
+        <v>-4.024136496046601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE795G01014</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>Life Insurance</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1256.25</v>
+        <v>624</v>
       </c>
       <c r="E11" t="n">
-        <v>1243.9</v>
+        <v>619</v>
       </c>
       <c r="F11" t="n">
-        <v>1241.8</v>
+        <v>620.15</v>
       </c>
       <c r="G11" t="n">
-        <v>1608.8</v>
+        <v>761.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1201.5</v>
+        <v>511.4</v>
       </c>
       <c r="I11" t="n">
-        <v>21.91384883142715</v>
+        <v>18.02417235943248</v>
       </c>
       <c r="J11" t="n">
-        <v>-4.556803995006242</v>
+        <v>-22.01798983183419</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE019A01038</t>
+          <t>INE585B01010</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel</t>
+          <t>Passenger Cars &amp; Utility Vehicles</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>921.8</v>
+        <v>11900</v>
       </c>
       <c r="E12" t="n">
-        <v>914</v>
+        <v>11849.95</v>
       </c>
       <c r="F12" t="n">
-        <v>912.5</v>
+        <v>11841.3</v>
       </c>
       <c r="G12" t="n">
-        <v>1063</v>
+        <v>13680</v>
       </c>
       <c r="H12" t="n">
-        <v>761.75</v>
+        <v>9737.65</v>
       </c>
       <c r="I12" t="n">
-        <v>13.28316086547507</v>
+        <v>13.01169590643275</v>
       </c>
       <c r="J12" t="n">
-        <v>-21.01083032490974</v>
+        <v>-22.20607641474073</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE216A01030</t>
+          <t>INE095A01012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Packaged Foods</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4833.25</v>
+        <v>996</v>
       </c>
       <c r="E13" t="n">
-        <v>4800</v>
+        <v>993</v>
       </c>
       <c r="F13" t="n">
-        <v>4787.8</v>
+        <v>991.35</v>
       </c>
       <c r="G13" t="n">
-        <v>6469.9</v>
+        <v>1694.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4641</v>
+        <v>926.45</v>
       </c>
       <c r="I13" t="n">
-        <v>25.29637243234053</v>
+        <v>41.2215992918265</v>
       </c>
       <c r="J13" t="n">
-        <v>-4.142426201249731</v>
+        <v>-7.507150952560846</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE918I01026</t>
+          <t>INE733E01010</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>NTPC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Holding Company</t>
+          <t>Power Generation</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1716.5</v>
+        <v>339.5</v>
       </c>
       <c r="E14" t="n">
-        <v>1700</v>
+        <v>338.05</v>
       </c>
       <c r="F14" t="n">
-        <v>1700.65</v>
+        <v>338</v>
       </c>
       <c r="G14" t="n">
-        <v>2029.9</v>
+        <v>448.45</v>
       </c>
       <c r="H14" t="n">
-        <v>1419.05</v>
+        <v>296.55</v>
       </c>
       <c r="I14" t="n">
-        <v>15.43918419626583</v>
+        <v>24.29479317649682</v>
       </c>
       <c r="J14" t="n">
-        <v>-20.96120644092879</v>
+        <v>-14.4832237396729</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE081A01020</t>
+          <t>INE522F01014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>COALINDIA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel</t>
+          <t>Coal</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>139.31</v>
+        <v>394.1</v>
       </c>
       <c r="E15" t="n">
-        <v>138.18</v>
+        <v>393</v>
       </c>
       <c r="F15" t="n">
-        <v>138.18</v>
+        <v>392.95</v>
       </c>
       <c r="G15" t="n">
-        <v>184.6</v>
+        <v>543.55</v>
       </c>
       <c r="H15" t="n">
-        <v>128.2</v>
+        <v>368</v>
       </c>
       <c r="I15" t="n">
-        <v>24.53412784398699</v>
+        <v>27.49517063747584</v>
       </c>
       <c r="J15" t="n">
-        <v>-8.666146645865846</v>
+        <v>-7.092391304347832</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE066A01021</t>
+          <t>INE752E01010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2/3 Wheelers</t>
+          <t>Power - Transmission</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5350</v>
+        <v>315.8</v>
       </c>
       <c r="E16" t="n">
-        <v>5325</v>
+        <v>316.35</v>
       </c>
       <c r="F16" t="n">
-        <v>5308.1</v>
+        <v>315.15</v>
       </c>
       <c r="G16" t="n">
-        <v>5385.7</v>
+        <v>366.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3562.45</v>
+        <v>226.05</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6628664797519324</v>
+        <v>13.77474402730375</v>
       </c>
       <c r="J16" t="n">
-        <v>-50.17754635152775</v>
+        <v>-39.70360539703605</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE849A01020</t>
+          <t>INE081A01020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Speciality Retail</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7378.65</v>
+        <v>138.33</v>
       </c>
       <c r="E17" t="n">
-        <v>7350</v>
+        <v>138.18</v>
       </c>
       <c r="F17" t="n">
-        <v>7321</v>
+        <v>138.18</v>
       </c>
       <c r="G17" t="n">
-        <v>8345</v>
+        <v>184.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2955</v>
+        <v>128.2</v>
       </c>
       <c r="I17" t="n">
-        <v>11.57998801677652</v>
+        <v>25.06500541711808</v>
       </c>
       <c r="J17" t="n">
-        <v>-149.7005076142132</v>
+        <v>-7.901716068642765</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE030A01027</t>
+          <t>INE019A01038</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Diversified FMCG</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2384.05</v>
+        <v>913</v>
       </c>
       <c r="E18" t="n">
-        <v>2381.85</v>
+        <v>914</v>
       </c>
       <c r="F18" t="n">
-        <v>2370</v>
+        <v>912.5</v>
       </c>
       <c r="G18" t="n">
-        <v>3035</v>
+        <v>1063</v>
       </c>
       <c r="H18" t="n">
-        <v>2172.05</v>
+        <v>761.75</v>
       </c>
       <c r="I18" t="n">
-        <v>21.44810543657331</v>
+        <v>14.11100658513641</v>
       </c>
       <c r="J18" t="n">
-        <v>-9.760364632490043</v>
+        <v>-19.85559566787004</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE238A01034</t>
+          <t>INE066A01021</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>2/3 Wheelers</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1093</v>
+        <v>5310</v>
       </c>
       <c r="E19" t="n">
-        <v>1086</v>
+        <v>5325</v>
       </c>
       <c r="F19" t="n">
-        <v>1086.6</v>
+        <v>5308.1</v>
       </c>
       <c r="G19" t="n">
-        <v>1339.65</v>
+        <v>5385.7</v>
       </c>
       <c r="H19" t="n">
-        <v>995.7</v>
+        <v>3562.45</v>
       </c>
       <c r="I19" t="n">
-        <v>18.41152539842497</v>
+        <v>1.405574020090236</v>
       </c>
       <c r="J19" t="n">
-        <v>-9.772019684643965</v>
+        <v>-49.05472357506773</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE029A01011</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tea &amp; Coffee</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>934.75</v>
+        <v>296.7</v>
       </c>
       <c r="E20" t="n">
-        <v>932.7</v>
+        <v>296</v>
       </c>
       <c r="F20" t="n">
-        <v>929.65</v>
+        <v>296.9</v>
       </c>
       <c r="G20" t="n">
-        <v>1256.44</v>
+        <v>376</v>
       </c>
       <c r="H20" t="n">
-        <v>882.9</v>
+        <v>222.55</v>
       </c>
       <c r="I20" t="n">
-        <v>25.60329184043807</v>
+        <v>21.0904255319149</v>
       </c>
       <c r="J20" t="n">
-        <v>-5.872692264129575</v>
+        <v>-33.31835542574701</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE752E01010</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Power - Transmission</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>316.45</v>
+        <v>1835.7</v>
       </c>
       <c r="E21" t="n">
-        <v>316.35</v>
+        <v>1851</v>
       </c>
       <c r="F21" t="n">
-        <v>315.15</v>
+        <v>1837.15</v>
       </c>
       <c r="G21" t="n">
-        <v>366.25</v>
+        <v>1942</v>
       </c>
       <c r="H21" t="n">
-        <v>226.05</v>
+        <v>1543.85</v>
       </c>
       <c r="I21" t="n">
-        <v>13.59726962457338</v>
+        <v>5.473738414006177</v>
       </c>
       <c r="J21" t="n">
-        <v>-39.99115239991151</v>
+        <v>-18.90403860478675</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE721A01013</t>
+          <t>INE918I01026</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Holding Company</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3072.3</v>
+        <v>1698</v>
       </c>
       <c r="E22" t="n">
-        <v>3060</v>
+        <v>1700</v>
       </c>
       <c r="F22" t="n">
-        <v>3060.05</v>
+        <v>1700.65</v>
       </c>
       <c r="G22" t="n">
-        <v>3652.25</v>
+        <v>2029.9</v>
       </c>
       <c r="H22" t="n">
-        <v>2029</v>
+        <v>1419.05</v>
       </c>
       <c r="I22" t="n">
-        <v>15.87925251557259</v>
+        <v>16.35055914084438</v>
       </c>
       <c r="J22" t="n">
-        <v>-51.41941843272549</v>
+        <v>-19.65751735315881</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE795G01014</t>
+          <t>INE721A01013</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HDFCLIFE</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Non Banking Financial Company (NBFC)</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>622.35</v>
+        <v>3055</v>
       </c>
       <c r="E23" t="n">
-        <v>619</v>
+        <v>3060</v>
       </c>
       <c r="F23" t="n">
-        <v>620.15</v>
+        <v>3060.05</v>
       </c>
       <c r="G23" t="n">
-        <v>761.2</v>
+        <v>3652.25</v>
       </c>
       <c r="H23" t="n">
-        <v>511.4</v>
+        <v>2029</v>
       </c>
       <c r="I23" t="n">
-        <v>18.24093536521282</v>
+        <v>16.35293312341707</v>
       </c>
       <c r="J23" t="n">
-        <v>-21.69534610872116</v>
+        <v>-50.56678166584524</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE522F01014</t>
+          <t>INE296A01024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Coal</t>
+          <t>Non Banking Financial Company (NBFC)</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>394.3</v>
+        <v>7367.9</v>
       </c>
       <c r="E24" t="n">
-        <v>393</v>
+        <v>7389.75</v>
       </c>
       <c r="F24" t="n">
-        <v>392.95</v>
+        <v>7389.2</v>
       </c>
       <c r="G24" t="n">
-        <v>543.55</v>
+        <v>7830</v>
       </c>
       <c r="H24" t="n">
-        <v>368</v>
+        <v>6187.8</v>
       </c>
       <c r="I24" t="n">
-        <v>27.45837549443473</v>
+        <v>5.90166028097063</v>
       </c>
       <c r="J24" t="n">
-        <v>-7.146739130434785</v>
+        <v>-19.07139855845372</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE021A01026</t>
+          <t>INE481G01011</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Paints</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2347.1</v>
+        <v>11755</v>
       </c>
       <c r="E25" t="n">
-        <v>2344</v>
+        <v>11799</v>
       </c>
       <c r="F25" t="n">
-        <v>2343.25</v>
+        <v>11797.7</v>
       </c>
       <c r="G25" t="n">
-        <v>3401.25</v>
+        <v>12145.35</v>
       </c>
       <c r="H25" t="n">
-        <v>2256.5</v>
+        <v>9250</v>
       </c>
       <c r="I25" t="n">
-        <v>30.99301727306138</v>
+        <v>3.213987246147706</v>
       </c>
       <c r="J25" t="n">
-        <v>-4.015067582539327</v>
+        <v>-27.08108108108108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE481G01011</t>
+          <t>INE021A01026</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Paints</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>11794.2</v>
+        <v>2333.8</v>
       </c>
       <c r="E26" t="n">
-        <v>11799</v>
+        <v>2344</v>
       </c>
       <c r="F26" t="n">
-        <v>11797.7</v>
+        <v>2343.25</v>
       </c>
       <c r="G26" t="n">
-        <v>12145.35</v>
+        <v>3401.25</v>
       </c>
       <c r="H26" t="n">
-        <v>9250</v>
+        <v>2256.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.891229976904738</v>
+        <v>31.3840499816244</v>
       </c>
       <c r="J26" t="n">
-        <v>-27.50486486486487</v>
+        <v>-3.425659206736104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE238A01034</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1452,899 +1452,899 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1834.45</v>
+        <v>1081.2</v>
       </c>
       <c r="E27" t="n">
-        <v>1851</v>
+        <v>1086</v>
       </c>
       <c r="F27" t="n">
-        <v>1837.15</v>
+        <v>1086.6</v>
       </c>
       <c r="G27" t="n">
-        <v>1942</v>
+        <v>1339.65</v>
       </c>
       <c r="H27" t="n">
-        <v>1543.85</v>
+        <v>995.7</v>
       </c>
       <c r="I27" t="n">
-        <v>5.538105046343974</v>
+        <v>19.29235248012541</v>
       </c>
       <c r="J27" t="n">
-        <v>-18.82307218965574</v>
+        <v>-8.586923772220548</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE849A01020</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Speciality Retail</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>799.45</v>
+        <v>7284.45</v>
       </c>
       <c r="E28" t="n">
-        <v>801.2</v>
+        <v>7350</v>
       </c>
       <c r="F28" t="n">
-        <v>801.2</v>
+        <v>7321</v>
       </c>
       <c r="G28" t="n">
-        <v>912</v>
+        <v>8345</v>
       </c>
       <c r="H28" t="n">
-        <v>600.65</v>
+        <v>2955</v>
       </c>
       <c r="I28" t="n">
-        <v>12.34100877192982</v>
+        <v>12.70880766926303</v>
       </c>
       <c r="J28" t="n">
-        <v>-33.09747773245652</v>
+        <v>-146.5126903553299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE101A01026</t>
+          <t>INE009A01021</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Passenger Cars &amp; Utility Vehicles</t>
+          <t>Computers - Software &amp; Consulting</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3201.5</v>
+        <v>1939.1</v>
       </c>
       <c r="E29" t="n">
-        <v>3215</v>
+        <v>1952.95</v>
       </c>
       <c r="F29" t="n">
-        <v>3211.1</v>
+        <v>1957.85</v>
       </c>
       <c r="G29" t="n">
-        <v>3237.05</v>
+        <v>2006.45</v>
       </c>
       <c r="H29" t="n">
-        <v>1575</v>
+        <v>1358.35</v>
       </c>
       <c r="I29" t="n">
-        <v>1.098222146707656</v>
+        <v>3.356674724015058</v>
       </c>
       <c r="J29" t="n">
-        <v>-103.2698412698413</v>
+        <v>-42.75407663709648</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE038A01020</t>
+          <t>INE101A01026</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aluminium</t>
+          <t>Passenger Cars &amp; Utility Vehicles</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>597</v>
+        <v>3180</v>
       </c>
       <c r="E30" t="n">
-        <v>599</v>
+        <v>3215</v>
       </c>
       <c r="F30" t="n">
-        <v>599</v>
+        <v>3211.1</v>
       </c>
       <c r="G30" t="n">
-        <v>772.65</v>
+        <v>3237.05</v>
       </c>
       <c r="H30" t="n">
-        <v>496.35</v>
+        <v>1575</v>
       </c>
       <c r="I30" t="n">
-        <v>22.73344981556979</v>
+        <v>1.76240712994857</v>
       </c>
       <c r="J30" t="n">
-        <v>-20.27802961619824</v>
+        <v>-101.9047619047619</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE018A01030</t>
+          <t>INE397D01024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Civil Construction</t>
+          <t>Telecom - Cellular &amp; Fixed line services</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3699.45</v>
+        <v>1594</v>
       </c>
       <c r="E31" t="n">
-        <v>3708</v>
+        <v>1615</v>
       </c>
       <c r="F31" t="n">
-        <v>3713.5</v>
+        <v>1609.7</v>
       </c>
       <c r="G31" t="n">
-        <v>3963.5</v>
+        <v>1779</v>
       </c>
       <c r="H31" t="n">
-        <v>3175.05</v>
+        <v>1021.35</v>
       </c>
       <c r="I31" t="n">
-        <v>6.662041125268075</v>
+        <v>10.3991006183249</v>
       </c>
       <c r="J31" t="n">
-        <v>-16.51627533424669</v>
+        <v>-56.06794928281197</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2/3 Wheelers</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9044.1</v>
+        <v>793.3</v>
       </c>
       <c r="E32" t="n">
-        <v>9100</v>
+        <v>801.2</v>
       </c>
       <c r="F32" t="n">
-        <v>9079.5</v>
+        <v>801.2</v>
       </c>
       <c r="G32" t="n">
-        <v>12774</v>
+        <v>912</v>
       </c>
       <c r="H32" t="n">
-        <v>6604</v>
+        <v>600.65</v>
       </c>
       <c r="I32" t="n">
-        <v>29.19915453264443</v>
+        <v>13.01535087719299</v>
       </c>
       <c r="J32" t="n">
-        <v>-36.9488188976378</v>
+        <v>-32.07358694747357</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INE397D01024</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Telecom - Cellular &amp; Fixed line services</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1603</v>
+        <v>483.95</v>
       </c>
       <c r="E33" t="n">
-        <v>1615</v>
+        <v>490.25</v>
       </c>
       <c r="F33" t="n">
-        <v>1609.7</v>
+        <v>489.05</v>
       </c>
       <c r="G33" t="n">
-        <v>1779</v>
+        <v>528.5</v>
       </c>
       <c r="H33" t="n">
-        <v>1021.35</v>
+        <v>399.35</v>
       </c>
       <c r="I33" t="n">
-        <v>9.893198426082069</v>
+        <v>8.429517502365186</v>
       </c>
       <c r="J33" t="n">
-        <v>-56.94913594752044</v>
+        <v>-21.18442469012144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE047A01021</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Trading - Minerals</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2584.1</v>
+        <v>2515</v>
       </c>
       <c r="E34" t="n">
-        <v>2580</v>
+        <v>2541.2</v>
       </c>
       <c r="F34" t="n">
-        <v>2597.7</v>
+        <v>2543.95</v>
       </c>
       <c r="G34" t="n">
-        <v>3743.9</v>
+        <v>2877.75</v>
       </c>
       <c r="H34" t="n">
-        <v>2025</v>
+        <v>2016.55</v>
       </c>
       <c r="I34" t="n">
-        <v>30.97839151686744</v>
+        <v>12.60533402832074</v>
       </c>
       <c r="J34" t="n">
-        <v>-27.60987654320987</v>
+        <v>-24.71795889018373</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INE029A01011</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>2/3 Wheelers</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>295.25</v>
+        <v>8965</v>
       </c>
       <c r="E35" t="n">
-        <v>296</v>
+        <v>9100</v>
       </c>
       <c r="F35" t="n">
-        <v>296.9</v>
+        <v>9079.5</v>
       </c>
       <c r="G35" t="n">
-        <v>376</v>
+        <v>12774</v>
       </c>
       <c r="H35" t="n">
-        <v>222.55</v>
+        <v>6604</v>
       </c>
       <c r="I35" t="n">
-        <v>21.47606382978723</v>
+        <v>29.81838108658212</v>
       </c>
       <c r="J35" t="n">
-        <v>-32.66681644574253</v>
+        <v>-35.75105996365839</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INE263A01024</t>
+          <t>INE437A01024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>295.1</v>
+        <v>7320</v>
       </c>
       <c r="E36" t="n">
-        <v>296.5</v>
+        <v>7427.95</v>
       </c>
       <c r="F36" t="n">
-        <v>296.8</v>
+        <v>7421.65</v>
       </c>
       <c r="G36" t="n">
-        <v>340.5</v>
+        <v>7545</v>
       </c>
       <c r="H36" t="n">
-        <v>171.75</v>
+        <v>5640</v>
       </c>
       <c r="I36" t="n">
-        <v>13.33333333333333</v>
+        <v>2.982107355864811</v>
       </c>
       <c r="J36" t="n">
-        <v>-71.81950509461427</v>
+        <v>-29.78723404255319</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INE437A01024</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Trading - Minerals</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7362.5</v>
+        <v>2562</v>
       </c>
       <c r="E37" t="n">
-        <v>7427.95</v>
+        <v>2580</v>
       </c>
       <c r="F37" t="n">
-        <v>7421.65</v>
+        <v>2597.7</v>
       </c>
       <c r="G37" t="n">
-        <v>7545</v>
+        <v>3743.9</v>
       </c>
       <c r="H37" t="n">
-        <v>5640</v>
+        <v>2025</v>
       </c>
       <c r="I37" t="n">
-        <v>2.418820410868125</v>
+        <v>31.56868506103262</v>
       </c>
       <c r="J37" t="n">
-        <v>-30.54078014184397</v>
+        <v>-26.51851851851852</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INE742F01042</t>
+          <t>INE018A01030</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Port &amp; Port services</t>
+          <t>Civil Construction</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1215.7</v>
+        <v>3660</v>
       </c>
       <c r="E38" t="n">
-        <v>1234.5</v>
+        <v>3708</v>
       </c>
       <c r="F38" t="n">
-        <v>1226</v>
+        <v>3713.5</v>
       </c>
       <c r="G38" t="n">
-        <v>1621.4</v>
+        <v>3963.5</v>
       </c>
       <c r="H38" t="n">
-        <v>995.65</v>
+        <v>3175.05</v>
       </c>
       <c r="I38" t="n">
-        <v>25.02158628345874</v>
+        <v>7.657373533493125</v>
       </c>
       <c r="J38" t="n">
-        <v>-22.10113995882088</v>
+        <v>-15.27377521613832</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INE860A01027</t>
+          <t>INE038A01020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Computers - Software &amp; Consulting</t>
+          <t>Aluminium</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1954.9</v>
+        <v>590.25</v>
       </c>
       <c r="E39" t="n">
-        <v>1980</v>
+        <v>599</v>
       </c>
       <c r="F39" t="n">
-        <v>1972.2</v>
+        <v>599</v>
       </c>
       <c r="G39" t="n">
-        <v>1992.1</v>
+        <v>772.65</v>
       </c>
       <c r="H39" t="n">
-        <v>1235</v>
+        <v>496.35</v>
       </c>
       <c r="I39" t="n">
-        <v>1.867376135736149</v>
+        <v>23.60706658901184</v>
       </c>
       <c r="J39" t="n">
-        <v>-58.29149797570852</v>
+        <v>-18.91810214566334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INE047A01021</t>
+          <t>INE860A01027</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>HCLTECH</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Computers - Software &amp; Consulting</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2520</v>
+        <v>1943</v>
       </c>
       <c r="E40" t="n">
-        <v>2541.2</v>
+        <v>1980</v>
       </c>
       <c r="F40" t="n">
-        <v>2543.95</v>
+        <v>1972.2</v>
       </c>
       <c r="G40" t="n">
-        <v>2877.75</v>
+        <v>1992.1</v>
       </c>
       <c r="H40" t="n">
-        <v>2016.55</v>
+        <v>1235</v>
       </c>
       <c r="I40" t="n">
-        <v>12.43158717748241</v>
+        <v>2.464735706038849</v>
       </c>
       <c r="J40" t="n">
-        <v>-24.96590711859364</v>
+        <v>-57.32793522267207</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE044A01036</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>SUNPHARMA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Diversified FMCG</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>484</v>
+        <v>1848.65</v>
       </c>
       <c r="E41" t="n">
-        <v>490.25</v>
+        <v>1878</v>
       </c>
       <c r="F41" t="n">
-        <v>489.05</v>
+        <v>1878</v>
       </c>
       <c r="G41" t="n">
-        <v>528.5</v>
+        <v>1960.35</v>
       </c>
       <c r="H41" t="n">
-        <v>399.35</v>
+        <v>1287</v>
       </c>
       <c r="I41" t="n">
-        <v>8.420056764427626</v>
+        <v>5.697962098604832</v>
       </c>
       <c r="J41" t="n">
-        <v>-21.19694503568298</v>
+        <v>-43.64024864024864</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>INE009A01021</t>
+          <t>INE263A01024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Computers - Software &amp; Consulting</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1936.45</v>
+        <v>291.95</v>
       </c>
       <c r="E42" t="n">
-        <v>1952.95</v>
+        <v>296.5</v>
       </c>
       <c r="F42" t="n">
-        <v>1957.85</v>
+        <v>296.8</v>
       </c>
       <c r="G42" t="n">
-        <v>2006.45</v>
+        <v>340.5</v>
       </c>
       <c r="H42" t="n">
-        <v>1358.35</v>
+        <v>171.75</v>
       </c>
       <c r="I42" t="n">
-        <v>3.488748785167834</v>
+        <v>14.25844346549193</v>
       </c>
       <c r="J42" t="n">
-        <v>-42.55898700629442</v>
+        <v>-69.98544395924307</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>INE044A01036</t>
+          <t>INE158A01026</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SUNPHARMA</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>2/3 Wheelers</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1857.4</v>
+        <v>4240.05</v>
       </c>
       <c r="E43" t="n">
-        <v>1878</v>
+        <v>4265.45</v>
       </c>
       <c r="F43" t="n">
-        <v>1878</v>
+        <v>4311.5</v>
       </c>
       <c r="G43" t="n">
-        <v>1960.35</v>
+        <v>6246.25</v>
       </c>
       <c r="H43" t="n">
-        <v>1287</v>
+        <v>3929.85</v>
       </c>
       <c r="I43" t="n">
-        <v>5.251613232330953</v>
+        <v>32.11847108264958</v>
       </c>
       <c r="J43" t="n">
-        <v>-44.32012432012433</v>
+        <v>-7.893431046986533</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE089A01031</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>DRREDDY</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Computers - Software &amp; Consulting</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4123.05</v>
+        <v>1351.15</v>
       </c>
       <c r="E44" t="n">
-        <v>4179.95</v>
+        <v>1375.05</v>
       </c>
       <c r="F44" t="n">
-        <v>4175.75</v>
+        <v>1375.05</v>
       </c>
       <c r="G44" t="n">
-        <v>4592.25</v>
+        <v>1421.49</v>
       </c>
       <c r="H44" t="n">
-        <v>3591.5</v>
+        <v>1104.13</v>
       </c>
       <c r="I44" t="n">
-        <v>10.21721378409276</v>
+        <v>4.948328866189697</v>
       </c>
       <c r="J44" t="n">
-        <v>-14.80022274815537</v>
+        <v>-22.37236557289449</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INE090A01021</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Computers - Software &amp; Consulting</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1271.85</v>
+        <v>4097</v>
       </c>
       <c r="E45" t="n">
-        <v>1286.2</v>
+        <v>4179.95</v>
       </c>
       <c r="F45" t="n">
-        <v>1290.6</v>
+        <v>4175.75</v>
       </c>
       <c r="G45" t="n">
-        <v>1362.35</v>
+        <v>4592.25</v>
       </c>
       <c r="H45" t="n">
-        <v>970.15</v>
+        <v>3591.5</v>
       </c>
       <c r="I45" t="n">
-        <v>6.642933166954161</v>
+        <v>10.78447384179868</v>
       </c>
       <c r="J45" t="n">
-        <v>-31.09828377055094</v>
+        <v>-14.0748990672421</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>INE089A01031</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DRREDDY</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1352.25</v>
+        <v>1265.6</v>
       </c>
       <c r="E46" t="n">
-        <v>1375.05</v>
+        <v>1286.2</v>
       </c>
       <c r="F46" t="n">
-        <v>1375.05</v>
+        <v>1290.6</v>
       </c>
       <c r="G46" t="n">
-        <v>1421.49</v>
+        <v>1362.35</v>
       </c>
       <c r="H46" t="n">
-        <v>1104.13</v>
+        <v>970.15</v>
       </c>
       <c r="I46" t="n">
-        <v>4.870945275731803</v>
+        <v>7.101699269644365</v>
       </c>
       <c r="J46" t="n">
-        <v>-22.47199152273735</v>
+        <v>-30.45405349688192</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE059A01026</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Computers - Software &amp; Consulting</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1697</v>
+        <v>1507.5</v>
       </c>
       <c r="E47" t="n">
-        <v>1712.2</v>
+        <v>1539</v>
       </c>
       <c r="F47" t="n">
-        <v>1726.95</v>
+        <v>1537.9</v>
       </c>
       <c r="G47" t="n">
-        <v>1807.7</v>
+        <v>1702.05</v>
       </c>
       <c r="H47" t="n">
-        <v>1162.95</v>
+        <v>1266.2</v>
       </c>
       <c r="I47" t="n">
-        <v>6.123803728494774</v>
+        <v>11.43033400898916</v>
       </c>
       <c r="J47" t="n">
-        <v>-45.92200868481017</v>
+        <v>-19.05702100773969</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INE040A01034</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>TECHM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Computers - Software &amp; Consulting</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1760</v>
+        <v>1690.5</v>
       </c>
       <c r="E48" t="n">
-        <v>1791</v>
+        <v>1712.2</v>
       </c>
       <c r="F48" t="n">
-        <v>1793.75</v>
+        <v>1726.95</v>
       </c>
       <c r="G48" t="n">
-        <v>1880</v>
+        <v>1807.7</v>
       </c>
       <c r="H48" t="n">
-        <v>1363.55</v>
+        <v>1162.95</v>
       </c>
       <c r="I48" t="n">
-        <v>6.382978723404255</v>
+        <v>6.483376666482272</v>
       </c>
       <c r="J48" t="n">
-        <v>-29.07484140662243</v>
+        <v>-45.36308525731974</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INE059A01026</t>
+          <t>INE742F01042</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Port &amp; Port services</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1507.45</v>
+        <v>1197.8</v>
       </c>
       <c r="E49" t="n">
-        <v>1539</v>
+        <v>1234.5</v>
       </c>
       <c r="F49" t="n">
-        <v>1537.9</v>
+        <v>1226</v>
       </c>
       <c r="G49" t="n">
-        <v>1702.05</v>
+        <v>1621.4</v>
       </c>
       <c r="H49" t="n">
-        <v>1266.2</v>
+        <v>995.65</v>
       </c>
       <c r="I49" t="n">
-        <v>11.43327164301871</v>
+        <v>26.12557049463427</v>
       </c>
       <c r="J49" t="n">
-        <v>-19.05307218448902</v>
+        <v>-20.30331943956209</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INE158A01026</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>HDFCBANK</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2/3 Wheelers</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4223.25</v>
+        <v>1748.4</v>
       </c>
       <c r="E50" t="n">
-        <v>4265.45</v>
+        <v>1791</v>
       </c>
       <c r="F50" t="n">
-        <v>4311.5</v>
+        <v>1793.75</v>
       </c>
       <c r="G50" t="n">
-        <v>6246.25</v>
+        <v>1880</v>
       </c>
       <c r="H50" t="n">
-        <v>3929.85</v>
+        <v>1363.55</v>
       </c>
       <c r="I50" t="n">
-        <v>32.38743245947568</v>
+        <v>6.999999999999996</v>
       </c>
       <c r="J50" t="n">
-        <v>-7.465933814267722</v>
+        <v>-28.22412086098787</v>
       </c>
     </row>
     <row r="51">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>295.95</v>
+        <v>295.2</v>
       </c>
       <c r="E51" t="n">
         <v>303.3</v>
@@ -2379,10 +2379,10 @@
         <v>208.5</v>
       </c>
       <c r="I51" t="n">
-        <v>7.515625000000003</v>
+        <v>7.750000000000003</v>
       </c>
       <c r="J51" t="n">
-        <v>-41.94244604316546</v>
+        <v>-41.58273381294963</v>
       </c>
     </row>
   </sheetData>
